--- a/biology/Médecine/Digital_imaging_and_communications_in_medicine/Digital_imaging_and_communications_in_medicine.xlsx
+++ b/biology/Médecine/Digital_imaging_and_communications_in_medicine/Digital_imaging_and_communications_in_medicine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Digital imaging and communications in medicine, couramment abrégée DICOM, est un standard pour la gestion informatique des données issues de l'imagerie médicale.
@@ -512,7 +524,9 @@
           <t>Objectifs et avantages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été créé en 1985 par l'ACR (American College of Radiology) et la NEMA (National Electric Manufacturers Association) dans le but de standardiser les données transmises entre les différents appareils de radiologie. Ce standard définit un format de fichier mais aussi un protocole de transmission des données (basé sur TCP/IP).
 L'objectif du standard DICOM est de faciliter les transferts d'images entre les machines de différents constructeurs. En effet, avant la généralisation de ce format, chaque constructeur de matériel d'imagerie utilisait un format de données propriétaire, entrainant d'importants problèmes de gestion et de maintenance (incompatibilités, coût, perte d'information) dans les établissements de santé.
@@ -546,7 +560,9 @@
           <t>Organisation du standard</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le standard est découpé en 18 parties modifiées par de nombreux addendums (Correction Items).
 </t>
@@ -577,7 +593,9 @@
           <t>Format</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Contrairement à une pensée fausse très répandue, le format DICOM pour les images n'est pas constitué d'un en-tête suivi de la matrice de pixels. Il s'agit, en fait, d'une suite de champs, les pixels n'étant qu'un champ particulier.
 Chaque champ est défini par :
@@ -595,19 +613,195 @@
 numéro d'élément (element number) encodé par deux octets.
 Elle est représentée sous la forme hexadécimale (DEAD, BEEF) où DEAD est le numéro de groupe et BEEF le numéro d'élément.
 Pour plus d'informations, voir la partie 5 du standard.
-Représentations de valeur
-Cette table résume les VR possibles. Pour plus d'information, se référer à la partie 5 du standard.
-Exemples de champs
-Cette table présente quelques exemples d'étiquettes disponibles. La liste complète constitue la partie 6 du standard.
-Liste des modalités supportées
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Digital_imaging_and_communications_in_medicine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Digital_imaging_and_communications_in_medicine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Format</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Représentations de valeur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette table résume les VR possibles. Pour plus d'information, se référer à la partie 5 du standard.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Digital_imaging_and_communications_in_medicine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Digital_imaging_and_communications_in_medicine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Format</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Exemples de champs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette table présente quelques exemples d'étiquettes disponibles. La liste complète constitue la partie 6 du standard.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Digital_imaging_and_communications_in_medicine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Digital_imaging_and_communications_in_medicine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Format</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des modalités supportées</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Les modalités peuvent récupérer des données démographiques des patients grâce à un DICOM Modality Worklist Server (DMWL).
-SOP class UIDs
-DICOM peut être utilisé pour représenter diverses données : examen scanner, ECG, rapport... Cette table liste les types de données supportées :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Digital_imaging_and_communications_in_medicine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Digital_imaging_and_communications_in_medicine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Format</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>SOP class UIDs</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DICOM peut être utilisé pour représenter diverses données : examen scanner, ECG, rapport... Cette table liste les types de données supportées :
 Certains constructeurs de matériel médical ont défini leur propre SOP Class UID, pour désigner un type d'image particulier.
 Ces classes ne sont donc pas définies dans le standard DICOM, mais sont publiées dans le DICOM Conformence Statement, fourni par le fabricant.
 Voici une liste non exhaustive de Private SOP Class UID :
-Syntaxes de transfert
-Les données DICOM peuvent être encodées de diverses façons :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Digital_imaging_and_communications_in_medicine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Digital_imaging_and_communications_in_medicine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Format</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Syntaxes de transfert</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les données DICOM peuvent être encodées de diverses façons :
 little endian ou big endian
 explicit ou implicite
 compressées ou non
